--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_16.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>546757.5747093988</v>
+        <v>571359.0354942593</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.0044347</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5338632.988085222</v>
+        <v>5338632.988085223</v>
       </c>
     </row>
     <row r="11">
@@ -665,67 +665,67 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H2" t="n">
+      <c r="T2" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I2" t="n">
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.5827239134057</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="4">
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869523</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C5" t="n">
         <v>205.5178444382804</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W5" t="n">
         <v>205.5178444382804</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>104.6224667287185</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>46.54968785507688</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,67 +1133,67 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="V8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F8" t="n">
+      <c r="W8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="G8" t="n">
-        <v>169.0708280266249</v>
-      </c>
-      <c r="H8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,22 +1263,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U9" t="n">
-        <v>71.8131212787539</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1333,10 +1333,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H11" t="n">
-        <v>181.0201173812374</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,13 +1449,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1497,22 +1497,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>16.75391682627455</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>173.3736693971975</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="T14" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U14" t="n">
         <v>205.5178444382804</v>
@@ -1667,7 +1667,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="W14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>118.8636856666436</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1695,13 +1695,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>36.6156848048708</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1853,13 +1853,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,22 +1889,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1926,25 +1926,25 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>115.8746375175634</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1971,19 +1971,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>234.288905720311</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2160,28 +2160,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>63.9067613594508</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>24.00235464595601</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2360,10 +2360,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2372,13 +2372,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>71.85152283581253</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>116.325098768111</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2555,11 +2555,11 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>80.33470701582003</v>
-      </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,19 +2600,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2637,13 +2637,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>50.71577234166258</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>135.4132168533397</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>24.7554325077908</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2837,28 +2837,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V29" t="n">
-        <v>200.3360962888297</v>
-      </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>94.41048699370604</v>
       </c>
     </row>
     <row r="30">
@@ -2868,16 +2868,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>6.501501223066181</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.03189205754168</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2931,10 +2931,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3071,31 +3071,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>202.2946864288972</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
     </row>
     <row r="33">
@@ -3114,16 +3114,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>32.82204027899002</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,22 +3156,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>63.14223173826446</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3199,46 +3199,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,19 +3314,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
@@ -3342,19 +3342,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>164.8304714084692</v>
+        <v>37.14015948583397</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3393,16 +3393,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3427,67 +3427,67 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3503,14 +3503,14 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y38" t="n">
         <v>241.0142888776591</v>
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>44.3330520202952</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3746,19 +3746,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="I41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,13 +3791,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3816,19 +3816,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>140.5786793831186</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3837,10 +3837,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>76.20164369361589</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3949,13 +3949,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -4019,10 +4019,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4040,10 +4040,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>31.15099944008764</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
     </row>
     <row r="45">
@@ -4056,13 +4056,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>7.565027066663836</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,22 +4101,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>167.922836289375</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,19 +4189,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C2" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D2" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4349,31 +4349,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X2" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y2" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>339.8907214957869</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>339.8907214957869</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>339.8907214957869</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>339.8907214957869</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>339.8907214957869</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>220.1101922903266</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
         <v>16.44142755506243</v>
@@ -4410,49 +4410,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N3" t="n">
-        <v>423.3667595428576</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O3" t="n">
-        <v>626.8294255367553</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P3" t="n">
-        <v>809.472903150106</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>339.8907214957869</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V3" t="n">
-        <v>339.8907214957869</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W3" t="n">
-        <v>339.8907214957869</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X3" t="n">
-        <v>339.8907214957869</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y3" t="n">
-        <v>339.8907214957869</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4504,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4568,10 +4568,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
         <v>379.753706324525</v>
@@ -4601,16 +4601,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W5" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X5" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y5" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>446.2622584721643</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C6" t="n">
-        <v>271.8092291910373</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D6" t="n">
-        <v>122.874819529786</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="E6" t="n">
-        <v>122.874819529786</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="F6" t="n">
-        <v>122.874819529786</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="G6" t="n">
-        <v>122.874819529786</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="H6" t="n">
-        <v>17.19556020784815</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="I6" t="n">
         <v>17.19556020784815</v>
@@ -4650,10 +4650,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M6" t="n">
         <v>345.2616536067974</v>
-      </c>
-      <c r="M6" t="n">
-        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
         <v>366.5706756325438</v>
@@ -4680,16 +4680,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X6" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y6" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4744,31 +4744,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
         <v>379.753706324525</v>
@@ -4835,19 +4835,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y8" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.1299698690994</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>166.1299698690994</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>163.1080096386462</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M9" t="n">
-        <v>366.5706756325438</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N9" t="n">
         <v>366.5706756325438</v>
@@ -4911,22 +4911,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U9" t="n">
-        <v>749.532871410946</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V9" t="n">
-        <v>541.9390891500567</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W9" t="n">
-        <v>541.9390891500567</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X9" t="n">
-        <v>541.9390891500567</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y9" t="n">
-        <v>334.3453068891674</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4981,31 +4981,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>199.2900309704538</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="C11" t="n">
-        <v>199.2900309704538</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="D11" t="n">
-        <v>199.2900309704538</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="E11" t="n">
-        <v>199.2900309704538</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="F11" t="n">
-        <v>199.2900309704538</v>
+        <v>396.792197863116</v>
       </c>
       <c r="G11" t="n">
-        <v>199.2900309704538</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="H11" t="n">
         <v>16.44142755506243</v>
@@ -5042,10 +5042,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
         <v>379.753706324525</v>
@@ -5060,31 +5060,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V11" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W11" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X11" t="n">
-        <v>406.8838132313431</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y11" t="n">
-        <v>406.8838132313431</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>338.1831474620902</v>
+        <v>322.9675731864187</v>
       </c>
       <c r="C12" t="n">
-        <v>163.7301181809632</v>
+        <v>322.9675731864187</v>
       </c>
       <c r="D12" t="n">
-        <v>163.7301181809632</v>
+        <v>322.9675731864187</v>
       </c>
       <c r="E12" t="n">
         <v>163.7301181809632</v>
@@ -5127,16 +5127,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9652341458732</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5145,25 +5145,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T12" t="n">
-        <v>720.9018483060073</v>
+        <v>530.561355447308</v>
       </c>
       <c r="U12" t="n">
-        <v>720.9018483060073</v>
+        <v>530.561355447308</v>
       </c>
       <c r="V12" t="n">
-        <v>545.7769297229795</v>
+        <v>530.561355447308</v>
       </c>
       <c r="W12" t="n">
-        <v>338.1831474620902</v>
+        <v>530.561355447308</v>
       </c>
       <c r="X12" t="n">
-        <v>338.1831474620902</v>
+        <v>322.9675731864187</v>
       </c>
       <c r="Y12" t="n">
-        <v>338.1831474620902</v>
+        <v>322.9675731864187</v>
       </c>
     </row>
     <row r="13">
@@ -5279,19 +5279,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5303,16 +5303,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T14" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U14" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V14" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W14" t="n">
         <v>16.44142755506243</v>
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>499.8204541556819</v>
       </c>
       <c r="C15" t="n">
-        <v>647.6183484719946</v>
+        <v>325.3674248745549</v>
       </c>
       <c r="D15" t="n">
-        <v>498.6839388107434</v>
+        <v>176.4330152133036</v>
       </c>
       <c r="E15" t="n">
-        <v>339.4464838052879</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F15" t="n">
-        <v>192.9119258321728</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G15" t="n">
-        <v>54.18110041478835</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H15" t="n">
         <v>17.19556020784815</v>
@@ -5361,7 +5361,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>219.90409354896</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M15" t="n">
         <v>232.5025681519757</v>
@@ -5385,22 +5385,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
     </row>
     <row r="16">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5537,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U17" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V17" t="n">
-        <v>262.7299197543128</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>487.2836868729568</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C18" t="n">
-        <v>487.2836868729568</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D18" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>340.7491288998418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5619,25 +5619,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>487.2836868729568</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V18" t="n">
-        <v>487.2836868729568</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W18" t="n">
-        <v>487.2836868729568</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X18" t="n">
-        <v>487.2836868729568</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y18" t="n">
-        <v>487.2836868729568</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F19" t="n">
         <v>19.28114311021272</v>
@@ -5716,7 +5716,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5777,22 +5777,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>499.3853800778592</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>255.9366034337592</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
         <v>19.28114311021272</v>
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>790.6398109613051</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="C21" t="n">
-        <v>726.0875267598396</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="D21" t="n">
-        <v>577.1531170985884</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="E21" t="n">
-        <v>417.9156620931329</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="F21" t="n">
-        <v>271.3811041200179</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>417.4543050195419</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>656.0584510084244</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V21" t="n">
-        <v>790.6398109613051</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W21" t="n">
-        <v>790.6398109613051</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X21" t="n">
-        <v>790.6398109613051</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="Y21" t="n">
-        <v>790.6398109613051</v>
+        <v>44.28007843568128</v>
       </c>
     </row>
     <row r="22">
@@ -5938,10 +5938,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>251.0958939094183</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>251.0958939094183</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>91.85843890396276</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6075,43 +6075,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V24" t="n">
-        <v>846.5570557448675</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W24" t="n">
-        <v>603.1082791007675</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="X24" t="n">
-        <v>395.2567788952347</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="Y24" t="n">
-        <v>187.4964801302808</v>
+        <v>425.5489231905453</v>
       </c>
     </row>
     <row r="25">
@@ -6169,13 +6169,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
         <v>19.28114311021272</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>343.8760884571613</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>100.4273118130612</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>343.8760884571613</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V26" t="n">
-        <v>343.8760884571613</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>343.8760884571613</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>343.8760884571613</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>343.8760884571613</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5698337361135</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C27" t="n">
-        <v>166.5698337361135</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D27" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,46 +6309,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>638.2422286438245</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>410.0186103802135</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>410.0186103802135</v>
+        <v>827.2761283860507</v>
       </c>
       <c r="W27" t="n">
-        <v>166.5698337361135</v>
+        <v>583.8273517419507</v>
       </c>
       <c r="X27" t="n">
-        <v>166.5698337361135</v>
+        <v>375.9758515364179</v>
       </c>
       <c r="Y27" t="n">
-        <v>166.5698337361135</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="28">
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K28" t="n">
         <v>19.28114311021272</v>
@@ -6403,31 +6403,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6485,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U29" t="n">
-        <v>720.6083788665362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V29" t="n">
-        <v>518.2486856454962</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="W29" t="n">
-        <v>518.2486856454962</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="X29" t="n">
-        <v>274.7999090013961</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>185.0857710682603</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
-        <v>185.0857710682603</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>185.0857710682603</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>25.84831606280483</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>25.84831606280483</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>25.84831606280483</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>25.84831606280483</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6546,16 +6546,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>417.4543050195419</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N30" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>880.1865574727153</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>880.1865574727153</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>880.1865574727153</v>
       </c>
       <c r="U30" t="n">
-        <v>588.4532163200711</v>
+        <v>880.1865574727153</v>
       </c>
       <c r="V30" t="n">
-        <v>353.3011080883284</v>
+        <v>645.0344492409727</v>
       </c>
       <c r="W30" t="n">
-        <v>353.3011080883284</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X30" t="n">
-        <v>353.3011080883284</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y30" t="n">
-        <v>353.3011080883284</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U32" t="n">
+        <v>527.5764290961142</v>
+      </c>
+      <c r="V32" t="n">
+        <v>527.5764290961142</v>
+      </c>
+      <c r="W32" t="n">
+        <v>527.5764290961142</v>
+      </c>
+      <c r="X32" t="n">
+        <v>527.5764290961142</v>
+      </c>
+      <c r="Y32" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="V32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="W32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="X32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>325.7954424002585</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>325.7954424002585</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>325.7954424002585</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>166.557987394803</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>166.557987394803</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
         <v>20.03527576299844</v>
@@ -6780,22 +6780,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>533.6469426057913</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V33" t="n">
-        <v>533.6469426057913</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W33" t="n">
-        <v>533.6469426057913</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X33" t="n">
-        <v>325.7954424002585</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y33" t="n">
-        <v>325.7954424002585</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6962,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T35" t="n">
-        <v>728.6161971483371</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U35" t="n">
-        <v>485.167420504237</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V35" t="n">
+        <v>517.4848137278872</v>
+      </c>
+      <c r="W35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="X35" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="W35" t="n">
+      <c r="Y35" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="X35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>489.203140025706</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>314.750110744579</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F36" t="n">
         <v>19.28114311021272</v>
@@ -7023,16 +7023,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>487.8483949674443</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>726.4525409563269</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>360.2295980564601</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V36" t="n">
-        <v>360.2295980564601</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W36" t="n">
-        <v>360.2295980564601</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X36" t="n">
-        <v>360.2295980564601</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="Y36" t="n">
-        <v>360.2295980564601</v>
+        <v>526.7184526376595</v>
       </c>
     </row>
     <row r="37">
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
         <v>829.5248650203655</v>
@@ -7135,10 +7135,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7214,10 +7214,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>341.0228630172405</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C39" t="n">
-        <v>166.5698337361135</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>166.5698337361135</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>166.5698337361135</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
         <v>20.03527576299844</v>
@@ -7254,22 +7254,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7281,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>761.8705608694022</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W39" t="n">
-        <v>761.8705608694022</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X39" t="n">
-        <v>554.0190606638694</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y39" t="n">
-        <v>509.2382000373086</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="40">
@@ -7354,7 +7354,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
         <v>19.28114311021272</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C41" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D41" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="F41" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="G41" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
         <v>16.44142755506243</v>
@@ -7418,10 +7418,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7439,22 +7439,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V41" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W41" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X41" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y41" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>446.2622584721643</v>
+        <v>513.308066045118</v>
       </c>
       <c r="C42" t="n">
-        <v>271.8092291910373</v>
+        <v>513.308066045118</v>
       </c>
       <c r="D42" t="n">
-        <v>271.8092291910373</v>
+        <v>513.308066045118</v>
       </c>
       <c r="E42" t="n">
-        <v>129.8105631474831</v>
+        <v>354.0706110396625</v>
       </c>
       <c r="F42" t="n">
-        <v>129.8105631474831</v>
+        <v>207.5360530665475</v>
       </c>
       <c r="G42" t="n">
-        <v>129.8105631474831</v>
+        <v>207.5360530665475</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>94.16691747412683</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
@@ -7494,10 +7494,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N42" t="n">
         <v>618.608711759224</v>
@@ -7512,28 +7512,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>513.308066045118</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>513.308066045118</v>
       </c>
       <c r="Y42" t="n">
-        <v>614.4775954922324</v>
+        <v>513.308066045118</v>
       </c>
     </row>
     <row r="43">
@@ -7597,10 +7597,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
         <v>16.44142755506243</v>
@@ -7649,49 +7649,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T44" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U44" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V44" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W44" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X44" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="Y44" t="n">
         <v>639.2227743377304</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>431.628992076841</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>175.6788825605179</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C45" t="n">
-        <v>175.6788825605179</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="D45" t="n">
-        <v>175.6788825605179</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7731,13 +7731,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>211.6833797714288</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>415.1460457653264</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>618.608711759224</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O45" t="n">
         <v>822.0713777531216</v>
@@ -7749,28 +7749,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>175.6788825605179</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>175.6788825605179</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W45" t="n">
-        <v>175.6788825605179</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X45" t="n">
-        <v>175.6788825605179</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y45" t="n">
-        <v>175.6788825605179</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8070,13 +8070,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>152.7075060082595</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,13 +8216,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>415.4335334139435</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8298,13 +8298,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8453,13 +8453,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>160.0786444523452</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
@@ -8690,13 +8690,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>415.4335334139435</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8775,19 +8775,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>131.836493543131</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,13 +8927,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -8942,7 +8942,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,10 +9009,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M15" t="n">
-        <v>154.8597658442563</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M18" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9258,10 +9258,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,22 +9480,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9723,19 +9723,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,22 +9957,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,19 +10194,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,19 +10671,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,13 +11066,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11142,13 +11142,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>335.768472927719</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>328.5558052311782</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11297,13 +11297,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,7 +11379,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>335.768472927719</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
@@ -11388,7 +11388,7 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -22553,19 +22553,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>200.9102526910244</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22589,22 +22589,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>201.9355493385884</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22638,13 +22638,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>18.76079324980493</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22671,28 +22671,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>70.67486577968219</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -22723,10 +22723,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.6226874585631</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,7 +22781,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C5" t="n">
         <v>159.7550473327271</v>
@@ -22841,7 +22841,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>146.7321410888975</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W5" t="n">
         <v>143.7231242791326</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22866,7 +22866,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22878,10 +22878,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>7.612977507777984</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>42.84694499633819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22920,13 +22920,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,10 +22984,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23021,28 +23021,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>246.2319094885102</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23075,13 +23075,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>70.32553552659914</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23097,13 +23097,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23121,7 +23121,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23151,22 +23151,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U9" t="n">
-        <v>154.1282608022209</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
         <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23197,10 +23197,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,10 +23221,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23267,13 +23267,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
-        <v>158.4546847345297</v>
+        <v>168.4453839490745</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23315,16 +23315,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23337,13 +23337,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23385,22 +23385,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>183.4108118685471</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>59.42691775222775</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23543,10 +23543,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T14" t="n">
-        <v>42.075732182894</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
         <v>45.82780846955609</v>
@@ -23555,7 +23555,7 @@
         <v>122.2344140318545</v>
       </c>
       <c r="W14" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>47.66949798322369</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23583,13 +23583,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>75.61975943162567</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23625,7 +23625,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23741,13 +23741,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>312.4655587480054</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23777,22 +23777,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23814,25 +23814,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>12.03090554892191</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>21.46887964564723</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23859,19 +23859,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G19" t="n">
         <v>167.9909793584588</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24017,25 +24017,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>114.952062997102</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24048,28 +24048,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>108.8017376288649</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>88.23308959054046</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,25 +24093,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24178,13 +24178,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,16 +24212,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,10 +24248,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24260,13 +24260,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>275.3266899823873</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24282,19 +24282,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>73.21768955757135</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>116.4754883813142</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24409,7 +24409,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24418,7 +24418,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24443,10 +24443,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>274.3483346048629</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24458,7 +24458,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24488,19 +24488,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266928</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24525,13 +24525,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>149.448956353159</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>97.38737029608561</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24625,7 +24625,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24643,7 +24643,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24655,7 +24655,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>261.5635968487001</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,28 +24725,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>127.4161621813053</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>291.8274516623475</v>
       </c>
     </row>
     <row r="30">
@@ -24756,16 +24756,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24777,7 +24777,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>82.89513162834889</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24804,13 +24804,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>17.12594209510145</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24819,10 +24819,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,7 +24926,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24959,31 +24959,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>365.0541832853293</v>
       </c>
     </row>
     <row r="33">
@@ -25002,16 +25002,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>104.5214768842206</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25044,22 +25044,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>142.630753465213</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25126,7 +25126,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25169,7 +25169,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25202,19 +25202,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>107.53913272771</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>338.0479125612334</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
@@ -25230,19 +25230,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.70271224139816</v>
+        <v>129.3930241640334</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25281,16 +25281,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25315,7 +25315,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25391,13 +25391,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25454,7 +25454,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y38" t="n">
         <v>145.2236497783945</v>
@@ -25467,10 +25467,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>123.3973950460205</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25479,7 +25479,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25521,22 +25521,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>161.3496437570092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25594,10 +25594,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25634,19 +25634,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
-        <v>133.9569576774867</v>
+        <v>158.4546847345297</v>
       </c>
       <c r="I41" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25679,13 +25679,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25704,19 +25704,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>17.0664010722823</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25725,10 +25725,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>13.19498915779918</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25837,13 +25837,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25907,10 +25907,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25928,10 +25928,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>338.5801012383814</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>215.208520489361</v>
       </c>
     </row>
     <row r="45">
@@ -25944,13 +25944,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>139.8800384979749</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,22 +25989,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>58.01854579159979</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26077,7 +26077,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>449762.3217306939</v>
+        <v>449762.321730694</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>449762.321730694</v>
+        <v>449762.3217306939</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>449762.3217306939</v>
+        <v>449762.321730694</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>473736.551549513</v>
+        <v>473736.5515495129</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473736.551549513</v>
+        <v>473736.5515495129</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>473736.551549513</v>
+        <v>473736.5515495131</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>473736.5515495129</v>
+        <v>473736.551549513</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>473736.5515495131</v>
+        <v>473736.5515495129</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473736.5515495129</v>
+        <v>473736.551549513</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>473736.5515495131</v>
+        <v>473736.551549513</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>449762.3217306939</v>
+        <v>449762.321730694</v>
       </c>
     </row>
   </sheetData>
@@ -26344,7 +26344,7 @@
         <v>132928.5380250659</v>
       </c>
       <c r="M2" t="n">
-        <v>132928.5380250659</v>
+        <v>132928.538025066</v>
       </c>
       <c r="N2" t="n">
         <v>132928.5380250659</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="C4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="D4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531153</v>
       </c>
       <c r="E4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="F4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531153</v>
       </c>
       <c r="G4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="H4" t="n">
-        <v>28310.24133100991</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="I4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="J4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="K4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="L4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="M4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="N4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531153</v>
       </c>
       <c r="P4" t="n">
-        <v>26843.34631524591</v>
+        <v>23970.50033531152</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-15634.07437083794</v>
+        <v>-12761.22839090355</v>
       </c>
       <c r="C6" t="n">
-        <v>53239.68221085193</v>
+        <v>56112.5281907863</v>
       </c>
       <c r="D6" t="n">
-        <v>53239.68221085192</v>
+        <v>56112.52819078634</v>
       </c>
       <c r="E6" t="n">
-        <v>86867.28221085189</v>
+        <v>89740.12819078632</v>
       </c>
       <c r="F6" t="n">
-        <v>86867.28221085193</v>
+        <v>89740.1281907863</v>
       </c>
       <c r="G6" t="n">
-        <v>80235.58495612722</v>
+        <v>83263.55807451787</v>
       </c>
       <c r="H6" t="n">
-        <v>89964.62793029434</v>
+        <v>92992.60104868497</v>
       </c>
       <c r="I6" t="n">
-        <v>89964.62793029429</v>
+        <v>92992.601048685</v>
       </c>
       <c r="J6" t="n">
-        <v>36192.11704008488</v>
+        <v>39220.09015847553</v>
       </c>
       <c r="K6" t="n">
-        <v>89964.62793029429</v>
+        <v>92992.601048685</v>
       </c>
       <c r="L6" t="n">
-        <v>89964.62793029429</v>
+        <v>92992.601048685</v>
       </c>
       <c r="M6" t="n">
-        <v>89964.62793029431</v>
+        <v>92992.60104868503</v>
       </c>
       <c r="N6" t="n">
-        <v>89964.62793029429</v>
+        <v>92992.60104868497</v>
       </c>
       <c r="O6" t="n">
-        <v>86867.2822108519</v>
+        <v>89740.12819078629</v>
       </c>
       <c r="P6" t="n">
-        <v>86867.28221085192</v>
+        <v>89740.12819078632</v>
       </c>
     </row>
   </sheetData>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34790,13 +34790,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>12.72573192223796</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,13 +34936,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>185.0873001866707</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -35018,13 +35018,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>21.52426467247106</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
@@ -35410,13 +35410,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>185.0873001866707</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35495,19 +35495,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>0.4947814597977008</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35662,7 +35662,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,10 +35729,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>12.72573192223801</v>
+      </c>
+      <c r="M15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M15" t="n">
-        <v>12.72573192223801</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
@@ -35896,7 +35896,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M18" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35978,10 +35978,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36443,19 +36443,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,19 +36914,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,13 +37786,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37862,13 +37862,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -38017,13 +38017,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38032,7 +38032,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
@@ -38108,7 +38108,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>571359.0354942593</v>
+        <v>572143.1814322881</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5338632.988085223</v>
+        <v>5338632.988085222</v>
       </c>
     </row>
     <row r="11">
@@ -671,13 +673,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -701,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T2" t="n">
-        <v>21.16030022554292</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>114.6969565630368</v>
       </c>
       <c r="V3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856712</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,14 +895,14 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W5" t="n">
+      <c r="Y5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,13 +980,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>53.08398788521271</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>46.54968785507688</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1032,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856712</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,28 +1135,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,25 +1177,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U8" t="n">
-        <v>181.0201173812374</v>
+        <v>9.211010870930394</v>
       </c>
       <c r="V8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1221,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>86.54702835680868</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1333,10 +1335,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1379,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="H11" t="n">
-        <v>171.0294181666926</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1455,22 +1457,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>16.75391682627455</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>197.4076324647072</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1616,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>118.8636856666436</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1701,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>102.0177176509012</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>94.41048699370604</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
@@ -1862,10 +1864,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1920,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>135.4141600157168</v>
+        <v>16.16726461546774</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1977,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2011,43 +2013,43 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>234.288905720311</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,28 +2162,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>63.9067613594508</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>24.00235464595601</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,61 +2326,61 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>84.41978777916125</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2397,16 +2399,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>71.85152283581253</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,22 +2444,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>241.0142888776591</v>
@@ -2570,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2597,13 +2599,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2612,7 +2614,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2637,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2652,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>4.140379606178955</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,16 +2690,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>135.4132168533397</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2737,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2755,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>24.7554325077908</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2834,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>94.41048699370604</v>
       </c>
     </row>
     <row r="30">
@@ -2868,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2916,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.03189205754168</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>191.8639173500312</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3071,31 +3073,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3171,7 +3173,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>63.14223173826446</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3281,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
@@ -3342,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>37.14015948583397</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>70.84795259427446</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3390,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3427,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3487,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3503,13 +3505,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3545,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>241.0142888776591</v>
@@ -3582,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>49.31110394229523</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3603,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>55.57566235103572</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3648,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3703,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3746,58 +3748,58 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F41" t="n">
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S41" t="n">
+        <v>21.16030022554286</v>
+      </c>
+      <c r="T41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G41" t="n">
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H41" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3822,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>39.76255200930621</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3831,16 +3833,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>76.20164369361589</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>171.0294181666926</v>
+      </c>
+      <c r="H44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="G44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y44" t="n">
-        <v>171.0294181666926</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="45">
@@ -4056,19 +4058,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>7.565027066663836</v>
+        <v>125.3840375353488</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4113,10 +4115,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E2" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="F2" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4334,13 +4336,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4349,31 +4351,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X2" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="3">
@@ -4413,43 +4415,43 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M3" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>548.724319600695</v>
       </c>
-      <c r="N3" t="n">
-        <v>752.1869855945927</v>
-      </c>
       <c r="O3" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U3" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V3" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W3" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X3" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
         <v>16.44142755506243</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4510,28 +4512,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>406.8838132313431</v>
+      </c>
+      <c r="C5" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="C5" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4574,7 +4576,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4601,13 +4603,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W5" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X5" t="n">
         <v>614.4775954922324</v>
-      </c>
-      <c r="W5" t="n">
-        <v>406.8838132313431</v>
-      </c>
-      <c r="X5" t="n">
-        <v>406.8838132313431</v>
       </c>
       <c r="Y5" t="n">
         <v>406.8838132313431</v>
@@ -4620,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>238.668476211275</v>
+        <v>552.6865112859393</v>
       </c>
       <c r="C6" t="n">
-        <v>64.21544693014803</v>
+        <v>378.2334820048123</v>
       </c>
       <c r="D6" t="n">
-        <v>64.21544693014803</v>
+        <v>229.2990723435611</v>
       </c>
       <c r="E6" t="n">
-        <v>64.21544693014803</v>
+        <v>70.06161733810558</v>
       </c>
       <c r="F6" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O6" t="n">
         <v>570.0333416264414</v>
@@ -4668,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V6" t="n">
-        <v>614.4775954922324</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W6" t="n">
-        <v>406.8838132313431</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X6" t="n">
-        <v>406.8838132313431</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y6" t="n">
-        <v>406.8838132313431</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4747,28 +4749,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4823,31 +4825,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U8" t="n">
-        <v>639.2227743377304</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="V8" t="n">
-        <v>431.628992076841</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="W8" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="X8" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="Y8" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.44142755506243</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I9" t="n">
         <v>16.44142755506243</v>
@@ -4884,16 +4886,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>219.90409354896</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O9" t="n">
         <v>570.0333416264414</v>
@@ -4911,22 +4913,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W9" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X9" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4981,31 +4983,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C11" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D11" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E11" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="F11" t="n">
-        <v>396.792197863116</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G11" t="n">
-        <v>189.1984156022267</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y11" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>322.9675731864187</v>
+        <v>415.0759465379826</v>
       </c>
       <c r="C12" t="n">
-        <v>322.9675731864187</v>
+        <v>415.0759465379826</v>
       </c>
       <c r="D12" t="n">
-        <v>322.9675731864187</v>
+        <v>415.0759465379826</v>
       </c>
       <c r="E12" t="n">
-        <v>163.7301181809632</v>
+        <v>415.0759465379826</v>
       </c>
       <c r="F12" t="n">
-        <v>17.19556020784815</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="G12" t="n">
-        <v>17.19556020784815</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N12" t="n">
-        <v>549.2141532458947</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O12" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
         <v>752.6768192397923</v>
@@ -5142,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>530.561355447308</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>530.561355447308</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>530.561355447308</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W12" t="n">
-        <v>530.561355447308</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X12" t="n">
-        <v>322.9675731864187</v>
+        <v>415.0759465379826</v>
       </c>
       <c r="Y12" t="n">
-        <v>322.9675731864187</v>
+        <v>415.0759465379826</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5215,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5285,13 +5287,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5303,25 +5305,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>499.8204541556819</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="C15" t="n">
-        <v>325.3674248745549</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="D15" t="n">
-        <v>176.4330152133036</v>
+        <v>369.7808440035221</v>
       </c>
       <c r="E15" t="n">
-        <v>17.19556020784815</v>
+        <v>210.5433889980666</v>
       </c>
       <c r="F15" t="n">
-        <v>17.19556020784815</v>
+        <v>210.5433889980666</v>
       </c>
       <c r="G15" t="n">
-        <v>17.19556020784815</v>
+        <v>210.5433889980666</v>
       </c>
       <c r="H15" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
         <v>17.19556020784815</v>
@@ -5358,49 +5360,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>29.03990215807806</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M15" t="n">
-        <v>232.5025681519757</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T15" t="n">
-        <v>619.8847831118876</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U15" t="n">
-        <v>619.8847831118876</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="V15" t="n">
-        <v>619.8847831118876</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="W15" t="n">
-        <v>619.8847831118876</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="X15" t="n">
-        <v>619.8847831118876</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="Y15" t="n">
-        <v>619.8847831118876</v>
+        <v>518.7152536647734</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5452,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G17" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>156.0631229240681</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="C18" t="n">
-        <v>156.0631229240681</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="D18" t="n">
         <v>19.28114311021272</v>
@@ -5598,19 +5600,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>178.8501590306595</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>417.4543050195419</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N18" t="n">
-        <v>656.0584510084244</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5625,19 +5627,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>634.6640077999109</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>399.5118995681682</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W18" t="n">
-        <v>156.0631229240681</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X18" t="n">
-        <v>156.0631229240681</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y18" t="n">
-        <v>156.0631229240681</v>
+        <v>203.827050448935</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
         <v>19.28114311021272</v>
@@ -5695,28 +5697,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5777,22 +5779,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
         <v>19.28114311021272</v>
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>44.28007843568128</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="C21" t="n">
-        <v>44.28007843568128</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D21" t="n">
-        <v>44.28007843568128</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E21" t="n">
-        <v>44.28007843568128</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F21" t="n">
-        <v>44.28007843568128</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G21" t="n">
-        <v>44.28007843568128</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,43 +5840,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>252.1315786412141</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W21" t="n">
-        <v>252.1315786412141</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X21" t="n">
-        <v>44.28007843568128</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y21" t="n">
-        <v>44.28007843568128</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="22">
@@ -5884,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
         <v>19.28114311021272</v>
@@ -5944,16 +5946,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>425.5489231905453</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>251.0958939094183</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>251.0958939094183</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>91.85843890396276</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6075,43 +6077,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T24" t="n">
-        <v>660.701031422288</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U24" t="n">
-        <v>660.701031422288</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V24" t="n">
-        <v>425.5489231905453</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W24" t="n">
-        <v>425.5489231905453</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X24" t="n">
-        <v>425.5489231905453</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>425.5489231905453</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6169,28 +6171,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6205,19 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,19 +6247,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
         <v>506.1786963984129</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>168.215552771464</v>
+        <v>183.4549323908569</v>
       </c>
       <c r="C27" t="n">
-        <v>168.215552771464</v>
+        <v>183.4549323908569</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>183.4549323908569</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>24.21747738540142</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>24.21747738540142</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>24.21747738540142</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>24.21747738540142</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V27" t="n">
-        <v>827.2761283860507</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W27" t="n">
-        <v>583.8273517419507</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X27" t="n">
-        <v>375.9758515364179</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="Y27" t="n">
-        <v>168.215552771464</v>
+        <v>183.4549323908569</v>
       </c>
     </row>
     <row r="28">
@@ -6358,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
         <v>19.28114311021272</v>
@@ -6403,31 +6405,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>358.0940480307835</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W29" t="n">
-        <v>358.0940480307835</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X29" t="n">
-        <v>358.0940480307835</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>193.7341723913397</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6549,13 +6551,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>880.1865574727153</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>880.1865574727153</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>880.1865574727153</v>
+        <v>495.6683447969875</v>
       </c>
       <c r="U30" t="n">
-        <v>880.1865574727153</v>
+        <v>495.6683447969875</v>
       </c>
       <c r="V30" t="n">
-        <v>645.0344492409727</v>
+        <v>495.6683447969875</v>
       </c>
       <c r="W30" t="n">
-        <v>401.5856725968725</v>
+        <v>495.6683447969875</v>
       </c>
       <c r="X30" t="n">
-        <v>193.7341723913397</v>
+        <v>495.6683447969875</v>
       </c>
       <c r="Y30" t="n">
-        <v>193.7341723913397</v>
+        <v>495.6683447969875</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>527.5764290961142</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U32" t="n">
-        <v>527.5764290961142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>527.5764290961142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W32" t="n">
-        <v>527.5764290961142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X32" t="n">
-        <v>527.5764290961142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>562.4161926976942</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V33" t="n">
-        <v>327.2640844659515</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W33" t="n">
-        <v>83.81530782185143</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6964,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>517.4848137278872</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>517.4848137278872</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>489.203140025706</v>
+        <v>90.84473158927784</v>
       </c>
       <c r="C36" t="n">
-        <v>314.750110744579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
         <v>19.28114311021272</v>
@@ -7017,19 +7019,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>761.8705608694022</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V36" t="n">
-        <v>526.7184526376595</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W36" t="n">
-        <v>526.7184526376595</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X36" t="n">
-        <v>526.7184526376595</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y36" t="n">
-        <v>526.7184526376595</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="37">
@@ -7069,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
         <v>829.5248650203655</v>
@@ -7135,10 +7137,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7259,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V39" t="n">
-        <v>728.9050472788936</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W39" t="n">
-        <v>485.4562706347935</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X39" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7351,10 +7353,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S40" t="n">
         <v>19.28114311021272</v>
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C41" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D41" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E41" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H41" t="n">
         <v>16.44142755506243</v>
@@ -7418,10 +7420,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7430,31 +7432,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X41" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y41" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="42">
@@ -7464,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>513.308066045118</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C42" t="n">
-        <v>513.308066045118</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D42" t="n">
-        <v>513.308066045118</v>
+        <v>574.3134015434382</v>
       </c>
       <c r="E42" t="n">
-        <v>354.0706110396625</v>
+        <v>415.0759465379826</v>
       </c>
       <c r="F42" t="n">
-        <v>207.5360530665475</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="G42" t="n">
-        <v>207.5360530665475</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H42" t="n">
-        <v>94.16691747412683</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>211.6833797714288</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7512,28 +7514,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W42" t="n">
-        <v>513.308066045118</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X42" t="n">
-        <v>513.308066045118</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y42" t="n">
-        <v>513.308066045118</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="43">
@@ -7597,10 +7599,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
         <v>16.44142755506243</v>
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C44" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="D44" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="E44" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="F44" t="n">
+        <v>396.792197863116</v>
+      </c>
+      <c r="G44" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="G44" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7649,19 +7651,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>85.87524403801982</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>265.9510956226784</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
-        <v>469.413761616576</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N44" t="n">
-        <v>672.8764276104736</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7688,10 +7690,10 @@
         <v>811.9797623848946</v>
       </c>
       <c r="X44" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y44" t="n">
-        <v>639.2227743377304</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>199.2900309704538</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="C45" t="n">
-        <v>24.83700168932677</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="D45" t="n">
-        <v>17.19556020784815</v>
+        <v>314.4097079779024</v>
       </c>
       <c r="E45" t="n">
-        <v>17.19556020784815</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="F45" t="n">
-        <v>17.19556020784815</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M45" t="n">
-        <v>423.3667595428576</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N45" t="n">
-        <v>626.8294255367553</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7752,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U45" t="n">
-        <v>614.4775954922324</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V45" t="n">
-        <v>406.8838132313431</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W45" t="n">
-        <v>199.2900309704538</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X45" t="n">
-        <v>199.2900309704538</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="Y45" t="n">
-        <v>199.2900309704538</v>
+        <v>441.0602509429012</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
@@ -7991,7 +7993,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8061,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8070,13 +8072,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>213.1865395540696</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,10 +8224,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8295,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>152.8659767558044</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8532,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N9" t="n">
-        <v>279.489774794024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8690,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8705,7 +8707,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>344.0722242181546</v>
@@ -8778,13 +8780,13 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>131.836493543131</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8933,16 +8935,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,13 +9008,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>151.2801117021122</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>173.111405903722</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9258,10 +9260,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9965,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10197,16 +10199,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10428,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,16 +10439,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>371.3463732493024</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10905,22 +10907,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,13 +11068,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11139,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>335.768472927719</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11154,7 +11156,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>290.2250192095839</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>339.8103375922893</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22559,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22589,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>201.9355493385884</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>111.244425517938</v>
       </c>
       <c r="V3" t="n">
         <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>70.67486577968219</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22729,7 +22731,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786024</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>201.7137242822431</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22841,16 +22843,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="6">
@@ -22866,13 +22868,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>91.98522450817117</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22881,10 +22883,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>42.84694499633819</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22920,10 +22922,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22966,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786024</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23021,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23039,10 +23041,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,25 +23065,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U8" t="n">
-        <v>70.32553552659914</v>
+        <v>242.1346420369061</v>
       </c>
       <c r="V8" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23097,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23109,16 +23111,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>58.5221840365752</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23151,16 +23153,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>19.14461131358425</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23197,10 +23199,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,10 +23223,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23267,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
-        <v>168.4453839490745</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>41.40506154378102</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23343,22 +23345,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>183.4108118685471</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>8.36535273877027</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23504,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23543,16 +23545,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23571,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>47.66949798322369</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23589,10 +23591,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>10.21772658559524</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,7 +23743,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>312.4655587480054</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
@@ -23750,10 +23752,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,10 +23779,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23808,13 +23810,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>12.03090554892191</v>
+        <v>131.277800949171</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23865,19 +23867,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23899,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.9909793584588</v>
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -24017,25 +24019,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>49.05096647893927</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>114.952062997102</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24048,28 +24050,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>108.8017376288649</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>88.23308959054046</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,16 +24214,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>169.6449844288198</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,25 +24250,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>166.9258651286752</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24285,16 +24287,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>73.21768955757135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24330,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24409,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24443,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>113.6687527430239</v>
@@ -24458,7 +24460,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,13 +24487,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24500,7 +24502,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>115.4668728266928</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24525,10 +24527,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24540,10 +24542,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>85.25625324523612</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24576,16 +24578,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>97.38737029608561</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24625,7 +24627,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24643,7 +24645,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24655,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>261.5635968487001</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24680,7 +24682,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24722,13 +24724,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24737,16 +24739,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y29" t="n">
-        <v>291.8274516623475</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24756,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24804,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>17.12594209510145</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>8.30081134479039</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24959,31 +24961,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>31.13252716541155</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>365.0541832853293</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25059,7 +25061,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>142.630753465213</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25126,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25169,7 +25171,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25202,19 +25204,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>338.0479125612334</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
@@ -25230,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>129.3930241640334</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>101.8605463940413</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25278,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25315,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25375,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25391,13 +25393,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25454,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>145.2236497783945</v>
@@ -25470,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>123.3973950460205</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25491,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25521,10 +25523,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25536,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25591,13 +25593,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25634,16 +25636,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>158.4546847345297</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25670,22 +25672,22 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>187.8597693607025</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25710,7 +25712,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>107.6825135553325</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25719,16 +25721,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>13.19498915779918</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25837,13 +25839,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>209.7848930768546</v>
+        <v>244.2733193484424</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25928,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y44" t="n">
-        <v>215.208520489361</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25944,19 +25946,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>139.8800384979749</v>
+        <v>22.06102802928994</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,7 +25994,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26001,10 +26003,10 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>449762.3217306939</v>
+        <v>449762.321730694</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>449762.3217306939</v>
+        <v>449762.321730694</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>473736.5515495129</v>
+        <v>473736.5515495131</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473736.5515495129</v>
+        <v>473736.551549513</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>473736.5515495131</v>
+        <v>473736.551549513</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>473736.5515495129</v>
+        <v>473736.551549513</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473736.551549513</v>
+        <v>473736.5515495129</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>449762.321730694</v>
+        <v>449762.3217306939</v>
       </c>
     </row>
     <row r="16">
@@ -26329,7 +26331,7 @@
         <v>132928.5380250659</v>
       </c>
       <c r="H2" t="n">
-        <v>132928.5380250659</v>
+        <v>132928.538025066</v>
       </c>
       <c r="I2" t="n">
         <v>132928.5380250659</v>
@@ -26344,7 +26346,7 @@
         <v>132928.5380250659</v>
       </c>
       <c r="M2" t="n">
-        <v>132928.538025066</v>
+        <v>132928.5380250659</v>
       </c>
       <c r="N2" t="n">
         <v>132928.5380250659</v>
@@ -26421,13 +26423,13 @@
         <v>23970.50033531152</v>
       </c>
       <c r="D4" t="n">
-        <v>23970.50033531153</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="E4" t="n">
         <v>23970.50033531152</v>
       </c>
       <c r="F4" t="n">
-        <v>23970.50033531153</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="G4" t="n">
         <v>25282.26821261927</v>
@@ -26454,7 +26456,7 @@
         <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>23970.50033531153</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="P4" t="n">
         <v>23970.50033531152</v>
@@ -26522,37 +26524,37 @@
         <v>-12761.22839090355</v>
       </c>
       <c r="C6" t="n">
-        <v>56112.5281907863</v>
+        <v>56112.52819078629</v>
       </c>
       <c r="D6" t="n">
-        <v>56112.52819078634</v>
+        <v>56112.52819078632</v>
       </c>
       <c r="E6" t="n">
-        <v>89740.12819078632</v>
+        <v>89740.12819078629</v>
       </c>
       <c r="F6" t="n">
-        <v>89740.1281907863</v>
+        <v>89740.12819078634</v>
       </c>
       <c r="G6" t="n">
-        <v>83263.55807451787</v>
+        <v>83263.55807451784</v>
       </c>
       <c r="H6" t="n">
-        <v>92992.60104868497</v>
+        <v>92992.60104868503</v>
       </c>
       <c r="I6" t="n">
         <v>92992.601048685</v>
       </c>
       <c r="J6" t="n">
-        <v>39220.09015847553</v>
+        <v>39220.0901584755</v>
       </c>
       <c r="K6" t="n">
+        <v>92992.60104868497</v>
+      </c>
+      <c r="L6" t="n">
+        <v>92992.60104868497</v>
+      </c>
+      <c r="M6" t="n">
         <v>92992.601048685</v>
-      </c>
-      <c r="L6" t="n">
-        <v>92992.601048685</v>
-      </c>
-      <c r="M6" t="n">
-        <v>92992.60104868503</v>
       </c>
       <c r="N6" t="n">
         <v>92992.60104868497</v>
@@ -34702,7 +34704,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
@@ -34711,7 +34713,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34781,7 +34783,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34790,13 +34792,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>70.5902951096252</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,10 +34944,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N5" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N5" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35015,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35252,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N9" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35410,13 +35412,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35425,7 +35427,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>205.5178444382804</v>
@@ -35498,13 +35500,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>0.4947814597977008</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35653,16 +35655,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>12.72573192223801</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
@@ -35744,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,7 +35898,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35966,7 +35968,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -35978,10 +35980,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36683,7 +36685,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,16 +36919,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37157,16 +37159,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>240.0046611659691</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37625,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,13 +37788,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37859,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>197.2140931478448</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37874,7 +37876,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>70.13516816460341</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38032,7 +38034,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>572143.1814322881</v>
+        <v>467910.6831688449</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5338632.988085222</v>
+        <v>5338632.988085223</v>
       </c>
     </row>
     <row r="11">
@@ -670,61 +670,61 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G2" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="H2" t="n">
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>114.6969565630368</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>205.5178444382804</v>
+        <v>13.94347069460048</v>
       </c>
       <c r="W3" t="n">
         <v>205.5178444382804</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,59 +895,59 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="X5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>53.08398788521271</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1153,55 +1153,55 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R8" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S8" t="n">
+      <c r="V8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T8" t="n">
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="U8" t="n">
-        <v>9.211010870930394</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1220,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>86.54702835680868</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>22.65049560650287</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1384,49 +1384,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>21.16030022554286</v>
+      </c>
+      <c r="U11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="I11" t="n">
-        <v>169.0708280266249</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>197.4076324647072</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>205.5178444382804</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="I14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1694,22 +1694,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>102.0177176509012</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>94.02368386149517</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1806,16 +1806,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1849,25 +1849,25 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1922,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>16.16726461546774</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1982,13 +1982,13 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>225.0039640932086</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>63.9067613594508</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>38.21115097729346</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2225,10 +2225,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2241,64 +2241,64 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,23 +2317,23 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
@@ -2362,31 +2362,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2462,10 +2462,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2475,67 +2475,67 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>241.0142888776591</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>4.140379606178955</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>109.1417793750723</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2794,14 +2794,14 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2918,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>191.8639173500312</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3034,10 +3034,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>89.20720739599011</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3173,7 +3173,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>135.4141600157168</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3201,52 +3201,52 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>241.0142888776591</v>
@@ -3328,7 +3328,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>70.84795259427446</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3429,64 +3429,64 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,23 +3502,23 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3596,16 +3596,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>33.19332575419072</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3635,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>55.57566235103572</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3647,7 +3647,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3705,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>21.16030022554286</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3824,19 +3824,19 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>39.76255200930621</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3875,16 +3875,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="X42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3988,61 +3988,61 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>31.15099944008764</v>
+      </c>
+      <c r="V44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>205.5178444382804</v>
@@ -4055,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>125.3840375353488</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>19.84004947482878</v>
       </c>
     </row>
     <row r="46">
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C2" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D2" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E2" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F2" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G2" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4336,7 +4336,7 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
         <v>379.753706324525</v>
@@ -4357,25 +4357,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X2" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N3" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O3" t="n">
         <v>570.0333416264414</v>
@@ -4433,28 +4433,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>547.4845037566762</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U3" t="n">
-        <v>431.628992076841</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V3" t="n">
-        <v>224.0352098159517</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="W3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="X3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4506,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4570,49 +4570,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>552.6865112859393</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>378.2334820048123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>229.2990723435611</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>70.06161733810558</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
         <v>16.44142755506243</v>
@@ -4649,49 +4649,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>423.3667595428576</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>720.9018483060073</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V6" t="n">
-        <v>720.9018483060073</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W6" t="n">
-        <v>720.9018483060073</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X6" t="n">
-        <v>720.9018483060073</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y6" t="n">
-        <v>720.9018483060073</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4743,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C8" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M8" t="n">
         <v>379.753706324525</v>
@@ -4825,31 +4825,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>236.1051990630351</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V8" t="n">
-        <v>236.1051990630351</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W8" t="n">
-        <v>236.1051990630351</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X8" t="n">
-        <v>236.1051990630351</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y8" t="n">
-        <v>236.1051990630351</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>446.2622584721643</v>
+        <v>345.09272902505</v>
       </c>
       <c r="C9" t="n">
-        <v>446.2622584721643</v>
+        <v>345.09272902505</v>
       </c>
       <c r="D9" t="n">
-        <v>446.2622584721643</v>
+        <v>345.09272902505</v>
       </c>
       <c r="E9" t="n">
-        <v>446.2622584721643</v>
+        <v>185.8552740195945</v>
       </c>
       <c r="F9" t="n">
-        <v>358.8410177077111</v>
+        <v>39.32071604647948</v>
       </c>
       <c r="G9" t="n">
-        <v>220.1101922903266</v>
+        <v>39.32071604647948</v>
       </c>
       <c r="H9" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
         <v>16.44142755506243</v>
@@ -4892,10 +4892,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>570.0333416264414</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O9" t="n">
         <v>570.0333416264414</v>
@@ -4907,28 +4907,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V9" t="n">
-        <v>614.4775954922324</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W9" t="n">
-        <v>614.4775954922324</v>
+        <v>513.308066045118</v>
       </c>
       <c r="X9" t="n">
-        <v>614.4775954922324</v>
+        <v>513.308066045118</v>
       </c>
       <c r="Y9" t="n">
-        <v>614.4775954922324</v>
+        <v>513.308066045118</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4980,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C11" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y11" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>415.0759465379826</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="C12" t="n">
-        <v>415.0759465379826</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="D12" t="n">
-        <v>415.0759465379826</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="E12" t="n">
-        <v>415.0759465379826</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="F12" t="n">
-        <v>268.5413885648676</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
         <v>16.44142755506243</v>
@@ -5132,40 +5132,40 @@
         <v>423.3667595428576</v>
       </c>
       <c r="N12" t="n">
-        <v>570.0333416264414</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V12" t="n">
-        <v>614.4775954922324</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="W12" t="n">
-        <v>614.4775954922324</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="X12" t="n">
-        <v>415.0759465379826</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="Y12" t="n">
-        <v>415.0759465379826</v>
+        <v>137.7041268545529</v>
       </c>
     </row>
     <row r="13">
@@ -5217,25 +5217,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
         <v>16.44142755506243</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5281,49 +5281,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>518.7152536647734</v>
+        <v>311.9103951894288</v>
       </c>
       <c r="C15" t="n">
-        <v>518.7152536647734</v>
+        <v>311.9103951894288</v>
       </c>
       <c r="D15" t="n">
-        <v>369.7808440035221</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="E15" t="n">
-        <v>210.5433889980666</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="F15" t="n">
-        <v>210.5433889980666</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>210.5433889980666</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5363,46 +5363,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>163.1080096386462</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>518.7152536647734</v>
+        <v>727.0979597112073</v>
       </c>
       <c r="U15" t="n">
-        <v>518.7152536647734</v>
+        <v>519.504177450318</v>
       </c>
       <c r="V15" t="n">
-        <v>518.7152536647734</v>
+        <v>311.9103951894288</v>
       </c>
       <c r="W15" t="n">
-        <v>518.7152536647734</v>
+        <v>311.9103951894288</v>
       </c>
       <c r="X15" t="n">
-        <v>518.7152536647734</v>
+        <v>311.9103951894288</v>
       </c>
       <c r="Y15" t="n">
-        <v>518.7152536647734</v>
+        <v>311.9103951894288</v>
       </c>
     </row>
     <row r="16">
@@ -5454,13 +5454,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
         <v>16.44142755506243</v>
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>35.61171342886701</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>35.61171342886701</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
         <v>19.28114311021272</v>
@@ -5597,19 +5597,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U18" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V18" t="n">
-        <v>862.8876260635219</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W18" t="n">
-        <v>619.4388494194218</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X18" t="n">
-        <v>411.587349213889</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y18" t="n">
-        <v>203.827050448935</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5697,10 +5697,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5779,25 +5779,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>499.3853800778592</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>255.9366034337592</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>790.6398109613051</v>
+        <v>206.8126749707503</v>
       </c>
       <c r="C21" t="n">
-        <v>726.0875267598396</v>
+        <v>206.8126749707503</v>
       </c>
       <c r="D21" t="n">
-        <v>577.1531170985884</v>
+        <v>57.87826530949906</v>
       </c>
       <c r="E21" t="n">
-        <v>417.9156620931329</v>
+        <v>57.87826530949906</v>
       </c>
       <c r="F21" t="n">
-        <v>271.3811041200179</v>
+        <v>57.87826530949906</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>57.87826530949906</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>57.87826530949906</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5873,10 +5873,10 @@
         <v>790.6398109613051</v>
       </c>
       <c r="X21" t="n">
-        <v>790.6398109613051</v>
+        <v>582.7883107557723</v>
       </c>
       <c r="Y21" t="n">
-        <v>790.6398109613051</v>
+        <v>375.0280119908184</v>
       </c>
     </row>
     <row r="22">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
         <v>19.28114311021272</v>
@@ -5946,16 +5946,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6071,13 +6071,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>497.8820279860555</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>262.7299197543128</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W24" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="25">
@@ -6183,16 +6183,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6205,19 +6205,19 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D26" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="D26" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6250,22 +6250,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
         <v>506.1786963984129</v>
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>183.4549323908569</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>183.4549323908569</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>183.4549323908569</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>24.21747738540142</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>24.21747738540142</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>24.21747738540142</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>24.21747738540142</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6308,19 +6308,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>304.2053859195205</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>634.6640077999109</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>634.6640077999109</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W27" t="n">
-        <v>391.2152311558108</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X27" t="n">
-        <v>391.2152311558108</v>
+        <v>188.2506127830665</v>
       </c>
       <c r="Y27" t="n">
-        <v>183.4549323908569</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="28">
@@ -6414,7 +6414,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6505,10 +6505,10 @@
         <v>953.9655401424092</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>327.4530077769195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>327.4530077769195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6545,49 +6545,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>495.6683447969875</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>495.6683447969875</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>495.6683447969875</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>495.6683447969875</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>495.6683447969875</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y30" t="n">
-        <v>495.6683447969875</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="31">
@@ -6654,19 +6654,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
         <v>19.28114311021272</v>
@@ -6730,22 +6730,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="V32" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W32" t="n">
+        <v>710.516763498309</v>
+      </c>
+      <c r="X32" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="V32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="W32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="X32" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6782,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>712.019119383956</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>873.9488652116563</v>
       </c>
       <c r="U33" t="n">
-        <v>634.6640077999109</v>
+        <v>873.9488652116563</v>
       </c>
       <c r="V33" t="n">
-        <v>399.5118995681682</v>
+        <v>638.7967569799137</v>
       </c>
       <c r="W33" t="n">
-        <v>156.0631229240681</v>
+        <v>395.3479803358136</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6967,13 +6967,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V35" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W35" t="n">
         <v>262.7299197543128</v>
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>90.84473158927784</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
         <v>19.28114311021272</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V36" t="n">
-        <v>259.0600686093459</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W36" t="n">
-        <v>259.0600686093459</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X36" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7259,19 +7259,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>705.7335281915883</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>470.5814199598456</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>227.1326433157456</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="40">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
         <v>19.28114311021272</v>
@@ -7353,31 +7353,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>224.0352098159517</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
         <v>16.44142755506243</v>
@@ -7414,10 +7414,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M41" t="n">
         <v>379.753706324525</v>
@@ -7438,25 +7438,25 @@
         <v>660.5968149695918</v>
       </c>
       <c r="S41" t="n">
-        <v>639.2227743377304</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T41" t="n">
-        <v>431.628992076841</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U41" t="n">
-        <v>431.628992076841</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V41" t="n">
-        <v>224.0352098159517</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W41" t="n">
-        <v>224.0352098159517</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X41" t="n">
-        <v>224.0352098159517</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y41" t="n">
-        <v>224.0352098159517</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>574.3134015434382</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>415.0759465379826</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>268.5413885648676</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
         <v>16.44142755506243</v>
@@ -7493,19 +7493,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>345.2616536067974</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>548.724319600695</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O42" t="n">
-        <v>752.1869855945927</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7523,19 +7523,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y42" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7593,10 +7593,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
         <v>16.44142755506243</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.792197863116</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
-        <v>396.792197863116</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>396.792197863116</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>396.792197863116</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>396.792197863116</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7651,49 +7651,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>603.4426111275161</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O44" t="n">
-        <v>752.6375612701642</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T44" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U44" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V44" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W44" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X44" t="n">
-        <v>604.3859801240053</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.792197863116</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>441.0602509429012</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>441.0602509429012</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>314.4097079779024</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
         <v>16.44142755506243</v>
@@ -7730,22 +7730,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>163.1080096386462</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7754,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U45" t="n">
-        <v>441.0602509429012</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V45" t="n">
-        <v>441.0602509429012</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="W45" t="n">
-        <v>441.0602509429012</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="X45" t="n">
-        <v>441.0602509429012</v>
+        <v>204.697218590109</v>
       </c>
       <c r="Y45" t="n">
-        <v>441.0602509429012</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="46">
@@ -7830,25 +7830,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
         <v>16.44142755506243</v>
@@ -7984,10 +7984,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -8072,7 +8072,7 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>164.1205091169155</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8227,13 +8227,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O6" t="n">
-        <v>290.7443071551351</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,13 +8455,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8540,13 +8540,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8701,13 +8701,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8780,16 +8780,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>279.489774794024</v>
+        <v>328.5558052311782</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M14" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9011,13 +9011,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>163.6582985944894</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9719,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9968,10 +9968,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10193,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10907,10 +10907,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10919,10 +10919,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,13 +11062,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>311.3779718877592</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>328.5558052311782</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>204.5647025239554</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11308,13 +11308,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>301.368163919873</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>163.6582985944894</v>
+        <v>339.3481270698632</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
@@ -11393,10 +11393,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22558,16 +22558,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G2" t="n">
-        <v>234.2826201338976</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H2" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22597,7 +22597,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22606,13 +22606,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,19 +22673,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>111.244425517938</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>218.8571164548248</v>
       </c>
       <c r="W3" t="n">
         <v>46.1771387226392</v>
@@ -22719,7 +22719,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -22731,7 +22731,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22846,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>178.2115505507204</v>
       </c>
       <c r="X5" t="n">
         <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,19 +22862,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>91.98522450817117</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22919,16 +22919,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22968,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23041,10 +23041,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,22 +23065,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>242.1346420369061</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23108,19 +23108,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>58.5221840365752</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>89.58494862999359</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23159,10 +23159,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23205,7 +23205,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23238,7 +23238,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23272,16 +23272,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>41.40506154378102</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>201.9355493385885</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23348,13 +23348,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>25.0191400868883</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>8.36535273877027</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23500,22 +23500,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F14" t="n">
         <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>318.3145018902242</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23539,10 +23539,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23582,22 +23582,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>10.21772658559524</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>106.1410448333264</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23694,16 +23694,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23737,25 +23737,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23788,7 +23788,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>188.9293852055442</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23810,13 +23810,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>131.277800949171</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23870,13 +23870,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>26.69101906771101</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23980,13 +23980,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24019,19 +24019,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>114.952062997102</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>108.8017376288649</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>51.18548187412161</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24113,10 +24113,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24186,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,31 +24250,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>166.9258651286752</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24302,7 +24302,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>62.17774896794338</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24335,13 +24335,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24423,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>113.6687527430239</v>
@@ -24460,7 +24460,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24530,7 +24530,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24542,7 +24542,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>85.25625324523612</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>96.63120582840517</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24654,10 +24654,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24682,13 +24682,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24697,7 +24697,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24745,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>167.4364142495718</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24758,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>136.7341746849847</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24806,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>8.30081134479039</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24894,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24922,10 +24922,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24970,19 +24970,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>31.13252716541155</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>110.9575212988315</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25061,7 +25061,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>70.35882518776063</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25134,7 +25134,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25207,7 +25207,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>10.33136403017744</v>
@@ -25216,7 +25216,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>101.8605463940413</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25280,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25450,16 +25450,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25484,16 +25484,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>104.1501914090199</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25523,10 +25523,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>170.3657197299391</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25593,13 +25593,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>344.1125915454646</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25645,7 +25645,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>187.8597693607025</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25690,7 +25690,7 @@
         <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25712,19 +25712,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>107.6825135553325</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25763,16 +25763,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25833,13 +25833,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25876,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>244.2733193484424</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25909,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25921,16 +25921,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>220.1946534677489</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>180.7200942177732</v>
@@ -25943,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>22.06102802928994</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25994,25 +25994,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>185.8426463024756</v>
       </c>
     </row>
     <row r="46">
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>449762.321730694</v>
+        <v>449762.3217306939</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>473736.5515495131</v>
+        <v>473736.551549513</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473736.5515495129</v>
+        <v>473736.551549513</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>473736.5515495131</v>
+        <v>473736.551549513</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>449762.3217306939</v>
+        <v>449762.321730694</v>
       </c>
     </row>
     <row r="16">
@@ -26331,7 +26331,7 @@
         <v>132928.5380250659</v>
       </c>
       <c r="H2" t="n">
-        <v>132928.538025066</v>
+        <v>132928.5380250659</v>
       </c>
       <c r="I2" t="n">
         <v>132928.5380250659</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12761.22839090355</v>
+        <v>-25399.39054576405</v>
       </c>
       <c r="C6" t="n">
-        <v>56112.52819078629</v>
+        <v>43474.36603592578</v>
       </c>
       <c r="D6" t="n">
-        <v>56112.52819078632</v>
+        <v>43474.36603592578</v>
       </c>
       <c r="E6" t="n">
-        <v>89740.12819078629</v>
+        <v>77101.96603592581</v>
       </c>
       <c r="F6" t="n">
-        <v>89740.12819078634</v>
+        <v>77101.96603592581</v>
       </c>
       <c r="G6" t="n">
-        <v>83263.55807451784</v>
+        <v>71045.5474544774</v>
       </c>
       <c r="H6" t="n">
-        <v>92992.60104868503</v>
+        <v>80774.5904286445</v>
       </c>
       <c r="I6" t="n">
-        <v>92992.601048685</v>
+        <v>80774.5904286445</v>
       </c>
       <c r="J6" t="n">
-        <v>39220.0901584755</v>
+        <v>27002.07953843507</v>
       </c>
       <c r="K6" t="n">
-        <v>92992.60104868497</v>
+        <v>80774.59042864453</v>
       </c>
       <c r="L6" t="n">
-        <v>92992.60104868497</v>
+        <v>80774.5904286445</v>
       </c>
       <c r="M6" t="n">
-        <v>92992.601048685</v>
+        <v>80774.5904286445</v>
       </c>
       <c r="N6" t="n">
-        <v>92992.60104868497</v>
+        <v>80774.5904286445</v>
       </c>
       <c r="O6" t="n">
-        <v>89740.12819078629</v>
+        <v>77101.96603592581</v>
       </c>
       <c r="P6" t="n">
-        <v>89740.12819078632</v>
+        <v>77101.96603592581</v>
       </c>
     </row>
   </sheetData>
@@ -34704,10 +34704,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34792,7 +34792,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>21.52426467247106</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34938,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
@@ -34947,13 +34947,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="O6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>148.1480627106907</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35260,13 +35260,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>21.52426467247106</v>
-      </c>
-      <c r="N9" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35412,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
@@ -35421,13 +35421,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35500,16 +35500,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>148.1480627106907</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,13 +35731,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>21.52426467247106</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
@@ -35746,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36676,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36688,10 +36688,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37627,10 +37627,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37639,10 +37639,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38028,13 +38028,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>70.1351681646035</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>21.52426467247106</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
@@ -38113,10 +38113,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
